--- a/Dashboard/src/app/data/Melsol-test.xlsx
+++ b/Dashboard/src/app/data/Melsol-test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,16 +477,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="D2" t="n">
-        <v>1.71</v>
+        <v>4.99</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -495,88 +495,88 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>10.6</v>
+        <v>11.55</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4</v>
+        <v>0.19</v>
       </c>
       <c r="D3" t="n">
-        <v>1.71</v>
+        <v>10.23</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>10.6</v>
+        <v>11.12</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
       <c r="D4" t="n">
-        <v>0.57</v>
+        <v>11.65</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>10.6</v>
+        <v>10.85</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4</v>
+        <v>0.26</v>
       </c>
       <c r="D5" t="n">
-        <v>0.57</v>
+        <v>15.49</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>10.6</v>
+        <v>11.81</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="6">
@@ -584,155 +584,155 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4</v>
+        <v>0.13</v>
       </c>
       <c r="D6" t="n">
-        <v>6.27</v>
+        <v>1.35</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>10.6</v>
+        <v>10.22</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D7" t="n">
-        <v>4.56</v>
+        <v>19.89</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>10.6</v>
+        <v>10.99</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D8" t="n">
-        <v>3.99</v>
+        <v>9.66</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>10.6</v>
+        <v>10.02</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="D9" t="n">
-        <v>1.71</v>
+        <v>5.95</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>10.6</v>
+        <v>10.94</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="D10" t="n">
-        <v>18.24</v>
+        <v>17.73</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>10.6</v>
+        <v>10.11</v>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4</v>
+        <v>0.16</v>
       </c>
       <c r="D11" t="n">
-        <v>21.09</v>
+        <v>15.08</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>10.6</v>
+        <v>10.24</v>
       </c>
       <c r="H11" t="n">
-        <v>31</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="12">
@@ -740,181 +740,181 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D12" t="n">
-        <v>6.93</v>
+        <v>19.08</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>10.6</v>
+        <v>10.24</v>
       </c>
       <c r="H12" t="n">
-        <v>26</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4</v>
+        <v>0.21</v>
       </c>
       <c r="D13" t="n">
-        <v>2.52</v>
+        <v>6.95</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>10.6</v>
+        <v>11.3</v>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4</v>
+        <v>0.49</v>
       </c>
       <c r="D14" t="n">
-        <v>10.08</v>
+        <v>11.28</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>10.6</v>
+        <v>11.49</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4</v>
+        <v>0.26</v>
       </c>
       <c r="D15" t="n">
-        <v>5.04</v>
+        <v>11.66</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>10.6</v>
+        <v>11.17</v>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4</v>
+        <v>0.11</v>
       </c>
       <c r="D16" t="n">
-        <v>2.52</v>
+        <v>19.62</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>10.6</v>
+        <v>11.92</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B17" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4</v>
+        <v>0.24</v>
       </c>
       <c r="D17" t="n">
-        <v>10.71</v>
+        <v>1.97</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>10.6</v>
+        <v>10.75</v>
       </c>
       <c r="H17" t="n">
-        <v>11</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="D18" t="n">
-        <v>11.52</v>
+        <v>6.46</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>10.6</v>
+        <v>10.57</v>
       </c>
       <c r="H18" t="n">
-        <v>11</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="19">
@@ -922,91 +922,91 @@
         <v>6</v>
       </c>
       <c r="B19" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="D19" t="n">
-        <v>11.52</v>
+        <v>4.22</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>10.6</v>
+        <v>11.74</v>
       </c>
       <c r="H19" t="n">
-        <v>12</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B20" t="n">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4</v>
+        <v>0.31</v>
       </c>
       <c r="D20" t="n">
-        <v>14.08</v>
+        <v>5.74</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>10.6</v>
+        <v>10.45</v>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4</v>
+        <v>0.28</v>
       </c>
       <c r="D21" t="n">
-        <v>7.68</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>10.6</v>
+        <v>11.93</v>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
       <c r="D22" t="n">
-        <v>9.6</v>
+        <v>7.77</v>
       </c>
       <c r="E22" t="n">
         <v>2</v>
@@ -1015,36 +1015,2064 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>10.6</v>
+        <v>10.02</v>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
+        <v>12</v>
+      </c>
+      <c r="B23" t="n">
+        <v>34</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D23" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>6</v>
+      </c>
+      <c r="B24" t="n">
+        <v>33</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D24" t="n">
+        <v>16.96</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" t="n">
+        <v>48</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D25" t="n">
+        <v>18.64</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>12</v>
+      </c>
+      <c r="B26" t="n">
+        <v>23</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5</v>
+      </c>
+      <c r="B27" t="n">
+        <v>62</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="n">
+        <v>88</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="D28" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>12</v>
+      </c>
+      <c r="B29" t="n">
+        <v>37</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D29" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="E29" t="n">
+        <v>5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
         <v>10</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B30" t="n">
+        <v>99</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>6</v>
+      </c>
+      <c r="B31" t="n">
+        <v>44</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D31" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>12</v>
+      </c>
+      <c r="B32" t="n">
+        <v>86</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D32" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>9</v>
+      </c>
+      <c r="B33" t="n">
+        <v>91</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D33" t="n">
+        <v>17.05</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="n">
+        <v>35</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>11</v>
+      </c>
+      <c r="B35" t="n">
+        <v>65</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D35" t="n">
+        <v>14.32</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.5299999999999998</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>11</v>
+      </c>
+      <c r="B36" t="n">
+        <v>99</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D36" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>10</v>
+      </c>
+      <c r="B37" t="n">
+        <v>47</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="D37" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>12</v>
+      </c>
+      <c r="B38" t="n">
+        <v>78</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D38" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>12</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D40" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>12</v>
+      </c>
+      <c r="B41" t="n">
+        <v>5</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>7</v>
+      </c>
+      <c r="B42" t="n">
+        <v>90</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>4</v>
+      </c>
+      <c r="B43" t="n">
+        <v>14</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D43" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="E43" t="n">
+        <v>5</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>9</v>
+      </c>
+      <c r="B44" t="n">
+        <v>27</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="D44" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" t="n">
+        <v>9</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E45" t="n">
+        <v>3</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>10.38</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5</v>
+      </c>
+      <c r="B46" t="n">
+        <v>79</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D46" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="E46" t="n">
+        <v>5</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>3</v>
+      </c>
+      <c r="B47" t="n">
         <v>15</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C47" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>7</v>
+      </c>
+      <c r="B48" t="n">
+        <v>90</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D48" t="n">
+        <v>17.79</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5</v>
+      </c>
+      <c r="B49" t="n">
+        <v>42</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>10.16</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>9</v>
+      </c>
+      <c r="B50" t="n">
+        <v>77</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D50" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>7</v>
+      </c>
+      <c r="B51" t="n">
+        <v>51</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D51" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.06000000000000005</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2</v>
+      </c>
+      <c r="B52" t="n">
+        <v>63</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D52" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>4</v>
+      </c>
+      <c r="B53" t="n">
+        <v>96</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D53" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>9</v>
+      </c>
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="E54" t="n">
+        <v>5</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>12</v>
+      </c>
+      <c r="B55" t="n">
+        <v>96</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="D55" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="E55" t="n">
+        <v>5</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>2</v>
+      </c>
+      <c r="B56" t="n">
+        <v>4</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D56" t="n">
+        <v>16.86</v>
+      </c>
+      <c r="E56" t="n">
+        <v>4</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>10</v>
+      </c>
+      <c r="B57" t="n">
+        <v>94</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D57" t="n">
+        <v>17.28</v>
+      </c>
+      <c r="E57" t="n">
+        <v>6</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>9</v>
+      </c>
+      <c r="B58" t="n">
+        <v>23</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D58" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.8700000000000001</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>10</v>
+      </c>
+      <c r="B59" t="n">
+        <v>15</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="E59" t="n">
+        <v>5</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="H59" t="n">
+        <v>4.52</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>5</v>
+      </c>
+      <c r="B60" t="n">
+        <v>43</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D60" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>2</v>
+      </c>
+      <c r="B61" t="n">
+        <v>29</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D61" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>4</v>
+      </c>
+      <c r="B62" t="n">
+        <v>36</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="D62" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2.24</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>12</v>
+      </c>
+      <c r="B63" t="n">
+        <v>13</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D63" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>12</v>
+      </c>
+      <c r="B64" t="n">
+        <v>32</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D64" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.5900000000000001</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>7</v>
+      </c>
+      <c r="B65" t="n">
+        <v>71</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D65" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="E65" t="n">
+        <v>5</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>12</v>
+      </c>
+      <c r="B66" t="n">
+        <v>59</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="D66" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>8</v>
+      </c>
+      <c r="B67" t="n">
+        <v>86</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D67" t="n">
+        <v>16.92</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>3</v>
+      </c>
+      <c r="B68" t="n">
+        <v>28</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D68" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1</v>
+      </c>
+      <c r="B69" t="n">
+        <v>66</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D69" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="E69" t="n">
+        <v>6</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>4</v>
+      </c>
+      <c r="B70" t="n">
+        <v>42</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D70" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2</v>
+      </c>
+      <c r="B71" t="n">
+        <v>45</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="D71" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E71" t="n">
+        <v>3</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>8</v>
+      </c>
+      <c r="B72" t="n">
+        <v>62</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D72" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>4</v>
+      </c>
+      <c r="B73" t="n">
+        <v>57</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D73" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="E73" t="n">
+        <v>4</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2</v>
+      </c>
+      <c r="B74" t="n">
+        <v>6</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D74" t="n">
+        <v>14.43</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>6</v>
+      </c>
+      <c r="B75" t="n">
+        <v>28</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E75" t="n">
+        <v>5</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="H75" t="n">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>6</v>
+      </c>
+      <c r="B76" t="n">
+        <v>28</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="D76" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>10</v>
+      </c>
+      <c r="B77" t="n">
+        <v>44</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="D77" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="E77" t="n">
+        <v>5</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="H77" t="n">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>4</v>
+      </c>
+      <c r="B78" t="n">
+        <v>84</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="D78" t="n">
+        <v>15.01</v>
+      </c>
+      <c r="E78" t="n">
+        <v>3</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>6</v>
+      </c>
+      <c r="B79" t="n">
+        <v>30</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D79" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="E79" t="n">
+        <v>5</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="H79" t="n">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>2</v>
+      </c>
+      <c r="B80" t="n">
+        <v>62</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D80" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="E80" t="n">
+        <v>4</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>10</v>
+      </c>
+      <c r="B81" t="n">
+        <v>75</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>12</v>
+      </c>
+      <c r="B82" t="n">
+        <v>92</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D82" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="E82" t="n">
+        <v>5</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="H82" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>2</v>
+      </c>
+      <c r="B83" t="n">
+        <v>89</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D83" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="E83" t="n">
+        <v>5</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" t="n">
+        <v>12</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>10</v>
+      </c>
+      <c r="B84" t="n">
+        <v>62</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>4</v>
+      </c>
+      <c r="B85" t="n">
+        <v>97</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D85" t="n">
+        <v>18.35</v>
+      </c>
+      <c r="E85" t="n">
+        <v>4</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>8</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="n">
         <v>0.4</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D86" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>7</v>
+      </c>
+      <c r="B87" t="n">
+        <v>27</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D87" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="E87" t="n">
+        <v>5</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="H87" t="n">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>12</v>
+      </c>
+      <c r="B88" t="n">
+        <v>62</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="D88" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>9</v>
+      </c>
+      <c r="B89" t="n">
+        <v>77</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D89" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="E89" t="n">
+        <v>3</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>8</v>
+      </c>
+      <c r="B90" t="n">
+        <v>3</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D90" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>5</v>
+      </c>
+      <c r="B91" t="n">
+        <v>70</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D91" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="E91" t="n">
+        <v>3</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.5499999999999998</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>2</v>
+      </c>
+      <c r="B92" t="n">
+        <v>72</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D92" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="E92" t="n">
+        <v>4</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="H92" t="n">
         <v>2.56</v>
       </c>
-      <c r="E23" t="n">
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>5</v>
+      </c>
+      <c r="B93" t="n">
+        <v>27</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D93" t="n">
+        <v>13.31</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>8</v>
+      </c>
+      <c r="B94" t="n">
+        <v>9</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D94" t="n">
+        <v>9</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>10</v>
+      </c>
+      <c r="B95" t="n">
+        <v>62</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="D95" t="n">
+        <v>14.74</v>
+      </c>
+      <c r="E95" t="n">
+        <v>6</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="H95" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>9</v>
+      </c>
+      <c r="B96" t="n">
+        <v>37</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="E96" t="n">
+        <v>5</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="H96" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>12</v>
+      </c>
+      <c r="B97" t="n">
+        <v>97</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="D97" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="E97" t="n">
+        <v>4</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" t="n">
+        <v>10.72</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>12</v>
+      </c>
+      <c r="B98" t="n">
+        <v>51</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="D98" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>12</v>
+      </c>
+      <c r="B99" t="n">
+        <v>44</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="E99" t="n">
+        <v>5</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="H99" t="n">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>9</v>
+      </c>
+      <c r="B100" t="n">
+        <v>24</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="D100" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1</v>
+      </c>
+      <c r="B101" t="n">
+        <v>79</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D101" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="E101" t="n">
         <v>3</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="H23" t="n">
-        <v>11</v>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Dashboard/src/app/data/Melsol-test.xlsx
+++ b/Dashboard/src/app/data/Melsol-test.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,25 +432,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>4.5</v>
+        <v>0.4</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>1.71</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>5.5</v>
+        <v>10.6</v>
       </c>
       <c r="H2">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -458,25 +458,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="D3">
-        <v>4.2</v>
+        <v>1.71</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>5.4</v>
+        <v>10.6</v>
       </c>
       <c r="H3">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -484,25 +484,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="D4">
-        <v>4.8</v>
+        <v>0.57</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>5.6</v>
+        <v>10.6</v>
       </c>
       <c r="H4">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -510,25 +510,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>4.2</v>
+        <v>0.4</v>
       </c>
       <c r="D5">
-        <v>4.5</v>
+        <v>0.57</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>5.3</v>
+        <v>10.6</v>
       </c>
       <c r="H5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -536,25 +536,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>4.8</v>
+        <v>0.4</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>6.27</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>5.5</v>
+        <v>10.6</v>
       </c>
       <c r="H6">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -562,25 +562,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>4.4</v>
+        <v>0.4</v>
       </c>
       <c r="D7">
-        <v>5.5</v>
+        <v>4.56</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>5.6</v>
+        <v>10.6</v>
       </c>
       <c r="H7">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -588,25 +588,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>4.9</v>
+        <v>0.4</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>3.99</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.6</v>
+        <v>10.6</v>
       </c>
       <c r="H8">
-        <v>70</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -614,25 +614,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>4.3</v>
+        <v>0.4</v>
       </c>
       <c r="D9">
-        <v>5.8</v>
+        <v>1.71</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>5.5</v>
+        <v>10.6</v>
       </c>
       <c r="H9">
-        <v>55</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -640,25 +640,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="C10">
-        <v>4.6</v>
+        <v>0.4</v>
       </c>
       <c r="D10">
-        <v>6.5</v>
+        <v>18.24</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>5.3</v>
+        <v>10.6</v>
       </c>
       <c r="H10">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -666,13 +666,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C11">
-        <v>4.1</v>
+        <v>0.4</v>
       </c>
       <c r="D11">
-        <v>5.3</v>
+        <v>21.09</v>
       </c>
       <c r="E11">
         <v>7</v>
@@ -681,10 +681,10 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>5.4</v>
+        <v>10.6</v>
       </c>
       <c r="H11">
-        <v>60</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -692,25 +692,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="C12">
-        <v>4.7</v>
+        <v>0.4</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>6.93</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>5.5</v>
+        <v>10.6</v>
       </c>
       <c r="H12">
-        <v>80</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -718,221 +718,221 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>4.2</v>
+        <v>0.4</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>2.52</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.6</v>
+        <v>10.6</v>
       </c>
       <c r="H13">
-        <v>90</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>4.8</v>
+        <v>0.4</v>
       </c>
       <c r="D14">
-        <v>7.5</v>
+        <v>10.08</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>5.3</v>
+        <v>10.6</v>
       </c>
       <c r="H14">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>5.04</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>5.5</v>
+        <v>10.6</v>
       </c>
       <c r="H15">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="D16">
-        <v>5.2</v>
+        <v>2.52</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>5.4</v>
+        <v>10.6</v>
       </c>
       <c r="H16">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B17">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="C17">
-        <v>4.3</v>
+        <v>0.4</v>
       </c>
       <c r="D17">
-        <v>4.8</v>
+        <v>10.71</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>5.3</v>
+        <v>10.6</v>
       </c>
       <c r="H17">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B18">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="C18">
-        <v>4.6</v>
+        <v>0.4</v>
       </c>
       <c r="D18">
-        <v>5.7</v>
+        <v>11.52</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>5.6</v>
+        <v>10.6</v>
       </c>
       <c r="H18">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B19">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C19">
-        <v>4.1</v>
+        <v>0.4</v>
       </c>
       <c r="D19">
-        <v>5.4</v>
+        <v>11.52</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>5.4</v>
+        <v>10.6</v>
       </c>
       <c r="H19">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B20">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C20">
-        <v>4.5</v>
+        <v>0.4</v>
       </c>
       <c r="D20">
-        <v>4.8</v>
+        <v>14.08</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.3</v>
+        <v>10.6</v>
       </c>
       <c r="H20">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B21">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="D21">
-        <v>4.4</v>
+        <v>7.68</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -941,114 +941,62 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>5.4</v>
+        <v>10.6</v>
       </c>
       <c r="H21">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B22">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="C22">
-        <v>4.6</v>
+        <v>0.4</v>
       </c>
       <c r="D22">
-        <v>5.5</v>
+        <v>9.6</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.5</v>
+        <v>10.6</v>
       </c>
       <c r="H22">
-        <v>55</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B23">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="C23">
-        <v>4.3</v>
+        <v>0.4</v>
       </c>
       <c r="D23">
-        <v>5.8</v>
+        <v>2.56</v>
       </c>
       <c r="E23">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>5.6</v>
+        <v>10.6</v>
       </c>
       <c r="H23">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>70</v>
-      </c>
-      <c r="C24">
-        <v>4.7</v>
-      </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-      <c r="E24">
-        <v>6</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>5.4</v>
-      </c>
-      <c r="H24">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>110</v>
-      </c>
-      <c r="C25">
-        <v>4.4</v>
-      </c>
-      <c r="D25">
-        <v>6.5</v>
-      </c>
-      <c r="E25">
-        <v>8</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>5.5</v>
-      </c>
-      <c r="H25">
-        <v>75</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Dashboard/src/app/data/Melsol-test.xlsx
+++ b/Dashboard/src/app/data/Melsol-test.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,25 +432,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="C2">
-        <v>0.4</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>1.71</v>
+        <v>200</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>10.6</v>
+        <v>90</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -458,25 +458,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="C3">
-        <v>0.4</v>
+        <v>70</v>
       </c>
       <c r="D3">
-        <v>1.71</v>
+        <v>250</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>10.6</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -484,25 +484,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="C4">
-        <v>0.4</v>
+        <v>80</v>
       </c>
       <c r="D4">
-        <v>0.57</v>
+        <v>300</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>10.6</v>
+        <v>110</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -510,25 +510,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C5">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="D5">
-        <v>0.57</v>
+        <v>280</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>10.6</v>
+        <v>105</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -536,25 +536,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="C6">
-        <v>0.4</v>
+        <v>90</v>
       </c>
       <c r="D6">
-        <v>6.27</v>
+        <v>350</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>10.6</v>
+        <v>120</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -562,25 +562,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="C7">
-        <v>0.4</v>
+        <v>100</v>
       </c>
       <c r="D7">
-        <v>4.56</v>
+        <v>400</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>10.6</v>
+        <v>130</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -588,25 +588,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C8">
-        <v>0.4</v>
+        <v>95</v>
       </c>
       <c r="D8">
-        <v>3.99</v>
+        <v>450</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.6</v>
+        <v>140</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -614,25 +614,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="C9">
-        <v>0.4</v>
+        <v>75</v>
       </c>
       <c r="D9">
-        <v>1.71</v>
+        <v>370</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>10.6</v>
+        <v>125</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -640,25 +640,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="C10">
-        <v>0.4</v>
+        <v>85</v>
       </c>
       <c r="D10">
-        <v>18.24</v>
+        <v>420</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>10.6</v>
+        <v>135</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -666,13 +666,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C11">
-        <v>0.4</v>
+        <v>70</v>
       </c>
       <c r="D11">
-        <v>21.09</v>
+        <v>350</v>
       </c>
       <c r="E11">
         <v>7</v>
@@ -681,10 +681,10 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>10.6</v>
+        <v>120</v>
       </c>
       <c r="H11">
-        <v>31</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -692,25 +692,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="C12">
-        <v>0.4</v>
+        <v>100</v>
       </c>
       <c r="D12">
-        <v>6.93</v>
+        <v>450</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>10.6</v>
+        <v>140</v>
       </c>
       <c r="H12">
-        <v>26</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -718,221 +718,221 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="C13">
-        <v>0.4</v>
+        <v>95</v>
       </c>
       <c r="D13">
-        <v>2.52</v>
+        <v>450</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.6</v>
+        <v>150</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="C14">
-        <v>0.4</v>
+        <v>80</v>
       </c>
       <c r="D14">
-        <v>10.08</v>
+        <v>400</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>10.6</v>
+        <v>130</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="C15">
-        <v>0.4</v>
+        <v>60</v>
       </c>
       <c r="D15">
-        <v>5.04</v>
+        <v>320</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>10.6</v>
+        <v>110</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="C16">
-        <v>0.4</v>
+        <v>55</v>
       </c>
       <c r="D16">
-        <v>2.52</v>
+        <v>280</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>10.6</v>
+        <v>100</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>55</v>
+      </c>
+      <c r="C17">
+        <v>50</v>
+      </c>
+      <c r="D17">
+        <v>250</v>
+      </c>
+      <c r="E17">
         <v>4</v>
       </c>
-      <c r="B17">
-        <v>28</v>
-      </c>
-      <c r="C17">
-        <v>0.4</v>
-      </c>
-      <c r="D17">
-        <v>10.71</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>10.6</v>
+        <v>95</v>
       </c>
       <c r="H17">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>65</v>
+      </c>
+      <c r="C18">
+        <v>65</v>
+      </c>
+      <c r="D18">
+        <v>300</v>
+      </c>
+      <c r="E18">
         <v>5</v>
       </c>
-      <c r="B18">
-        <v>29</v>
-      </c>
-      <c r="C18">
-        <v>0.4</v>
-      </c>
-      <c r="D18">
-        <v>11.52</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>10.6</v>
+        <v>105</v>
       </c>
       <c r="H18">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C19">
-        <v>0.4</v>
+        <v>55</v>
       </c>
       <c r="D19">
-        <v>11.52</v>
+        <v>280</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>10.6</v>
+        <v>100</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C20">
-        <v>0.4</v>
+        <v>45</v>
       </c>
       <c r="D20">
-        <v>14.08</v>
+        <v>230</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>10.6</v>
+        <v>90</v>
       </c>
       <c r="H20">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C21">
-        <v>0.4</v>
+        <v>40</v>
       </c>
       <c r="D21">
-        <v>7.68</v>
+        <v>200</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -941,62 +941,114 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>10.6</v>
+        <v>85</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C22">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="D22">
-        <v>9.6</v>
+        <v>320</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>10.6</v>
+        <v>110</v>
       </c>
       <c r="H22">
-        <v>9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="C23">
-        <v>0.4</v>
+        <v>75</v>
       </c>
       <c r="D23">
-        <v>2.56</v>
+        <v>350</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>10.6</v>
+        <v>120</v>
       </c>
       <c r="H23">
-        <v>11</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>75</v>
+      </c>
+      <c r="C24">
+        <v>70</v>
+      </c>
+      <c r="D24">
+        <v>330</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>115</v>
+      </c>
+      <c r="H24">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>85</v>
+      </c>
+      <c r="C25">
+        <v>80</v>
+      </c>
+      <c r="D25">
+        <v>370</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>125</v>
+      </c>
+      <c r="H25">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Dashboard/src/app/data/Melsol-test.xlsx
+++ b/Dashboard/src/app/data/Melsol-test.xlsx
@@ -432,25 +432,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>700</v>
       </c>
       <c r="C2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D2">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>90</v>
+        <v>3.5</v>
       </c>
       <c r="H2">
-        <v>50</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -458,25 +458,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>70</v>
+        <v>850</v>
       </c>
       <c r="C3">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D3">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>3.8</v>
       </c>
       <c r="H3">
-        <v>60</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -484,25 +484,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>80</v>
+        <v>900</v>
       </c>
       <c r="C4">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D4">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>70</v>
+        <v>750</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -510,25 +510,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>75</v>
+        <v>750</v>
       </c>
       <c r="C5">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D5">
-        <v>280</v>
+        <v>85</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>105</v>
+        <v>3.7</v>
       </c>
       <c r="H5">
-        <v>65</v>
+        <v>650</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -536,25 +536,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>90</v>
+        <v>950</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D6">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>120</v>
+        <v>4.2</v>
       </c>
       <c r="H6">
-        <v>80</v>
+        <v>800</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -562,25 +562,25 @@
         <v>6</v>
       </c>
       <c r="B7">
+        <v>1000</v>
+      </c>
+      <c r="C7">
+        <v>85</v>
+      </c>
+      <c r="D7">
         <v>100</v>
       </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7">
-        <v>400</v>
-      </c>
       <c r="E7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>130</v>
+        <v>4.5</v>
       </c>
       <c r="H7">
-        <v>90</v>
+        <v>850</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -588,13 +588,13 @@
         <v>7</v>
       </c>
       <c r="B8">
+        <v>1000</v>
+      </c>
+      <c r="C8">
+        <v>90</v>
+      </c>
+      <c r="D8">
         <v>100</v>
-      </c>
-      <c r="C8">
-        <v>95</v>
-      </c>
-      <c r="D8">
-        <v>450</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -603,10 +603,10 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>90</v>
+        <v>900</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -614,25 +614,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>85</v>
+        <v>900</v>
       </c>
       <c r="C9">
         <v>75</v>
       </c>
       <c r="D9">
-        <v>370</v>
+        <v>100</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>125</v>
+        <v>4.7</v>
       </c>
       <c r="H9">
-        <v>75</v>
+        <v>850</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -640,13 +640,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="C10">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D10">
-        <v>420</v>
+        <v>100</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>135</v>
+        <v>4.8</v>
       </c>
       <c r="H10">
-        <v>85</v>
+        <v>900</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -666,13 +666,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>80</v>
+        <v>850</v>
       </c>
       <c r="C11">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D11">
-        <v>350</v>
+        <v>95</v>
       </c>
       <c r="E11">
         <v>7</v>
@@ -681,10 +681,10 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>120</v>
+        <v>4.5</v>
       </c>
       <c r="H11">
-        <v>70</v>
+        <v>750</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -692,13 +692,13 @@
         <v>11</v>
       </c>
       <c r="B12">
+        <v>1000</v>
+      </c>
+      <c r="C12">
+        <v>95</v>
+      </c>
+      <c r="D12">
         <v>100</v>
-      </c>
-      <c r="C12">
-        <v>100</v>
-      </c>
-      <c r="D12">
-        <v>450</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -707,10 +707,10 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="H12">
-        <v>90</v>
+        <v>900</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -718,13 +718,13 @@
         <v>12</v>
       </c>
       <c r="B13">
+        <v>1000</v>
+      </c>
+      <c r="C13">
         <v>100</v>
       </c>
-      <c r="C13">
-        <v>95</v>
-      </c>
       <c r="D13">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -733,10 +733,10 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="H13">
-        <v>90</v>
+        <v>900</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -744,13 +744,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>90</v>
+        <v>900</v>
       </c>
       <c r="C14">
         <v>80</v>
       </c>
       <c r="D14">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E14">
         <v>8</v>
@@ -759,10 +759,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>130</v>
+        <v>4.7</v>
       </c>
       <c r="H14">
-        <v>75</v>
+        <v>850</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -770,25 +770,25 @@
         <v>14</v>
       </c>
       <c r="B15">
+        <v>800</v>
+      </c>
+      <c r="C15">
         <v>70</v>
       </c>
-      <c r="C15">
-        <v>60</v>
-      </c>
       <c r="D15">
-        <v>320</v>
+        <v>90</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>110</v>
+        <v>4.3</v>
       </c>
       <c r="H15">
-        <v>60</v>
+        <v>750</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -796,25 +796,25 @@
         <v>15</v>
       </c>
       <c r="B16">
+        <v>700</v>
+      </c>
+      <c r="C16">
         <v>60</v>
       </c>
-      <c r="C16">
-        <v>55</v>
-      </c>
       <c r="D16">
-        <v>280</v>
+        <v>85</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="H16">
-        <v>50</v>
+        <v>650</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -822,25 +822,25 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>55</v>
+        <v>600</v>
       </c>
       <c r="C17">
         <v>50</v>
       </c>
       <c r="D17">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>95</v>
+        <v>3.8</v>
       </c>
       <c r="H17">
-        <v>45</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -848,25 +848,25 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>65</v>
+        <v>750</v>
       </c>
       <c r="C18">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D18">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>105</v>
+        <v>4.1</v>
       </c>
       <c r="H18">
-        <v>55</v>
+        <v>650</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -874,13 +874,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>60</v>
+        <v>650</v>
       </c>
       <c r="C19">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D19">
-        <v>280</v>
+        <v>85</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -889,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>100</v>
+        <v>3.9</v>
       </c>
       <c r="H19">
-        <v>50</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -900,13 +900,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>50</v>
+        <v>550</v>
       </c>
       <c r="C20">
         <v>45</v>
       </c>
       <c r="D20">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>90</v>
+        <v>3.5</v>
       </c>
       <c r="H20">
-        <v>40</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -926,13 +926,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>45</v>
+        <v>500</v>
       </c>
       <c r="C21">
         <v>40</v>
       </c>
       <c r="D21">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>85</v>
+        <v>3.3</v>
       </c>
       <c r="H21">
-        <v>35</v>
+        <v>450</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -952,13 +952,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>70</v>
+        <v>700</v>
       </c>
       <c r="C22">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D22">
-        <v>320</v>
+        <v>90</v>
       </c>
       <c r="E22">
         <v>5</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>110</v>
+        <v>4.1</v>
       </c>
       <c r="H22">
-        <v>60</v>
+        <v>650</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -978,13 +978,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>80</v>
+        <v>800</v>
       </c>
       <c r="C23">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D23">
-        <v>350</v>
+        <v>95</v>
       </c>
       <c r="E23">
         <v>7</v>
@@ -993,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>120</v>
+        <v>4.5</v>
       </c>
       <c r="H23">
-        <v>70</v>
+        <v>750</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1004,13 +1004,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>75</v>
+        <v>750</v>
       </c>
       <c r="C24">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D24">
-        <v>330</v>
+        <v>90</v>
       </c>
       <c r="E24">
         <v>6</v>
@@ -1019,10 +1019,10 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>115</v>
+        <v>4.3</v>
       </c>
       <c r="H24">
-        <v>65</v>
+        <v>700</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1030,13 +1030,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>85</v>
+        <v>850</v>
       </c>
       <c r="C25">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D25">
-        <v>370</v>
+        <v>100</v>
       </c>
       <c r="E25">
         <v>8</v>
@@ -1045,10 +1045,10 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>125</v>
+        <v>4.7</v>
       </c>
       <c r="H25">
-        <v>75</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>
